--- a/result/reg/ols_all.xlsx
+++ b/result/reg/ols_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -616,15 +616,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.311</v>
+        <v>0.061</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.338</v>
+        <v>0.291</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -632,59 +632,59 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.308</v>
+        <v>0.377</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.319</v>
+        <v>0.154</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.23</v>
+        <v>0.301</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.31</v>
+        <v>0.414</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.341</v>
+        <v>0.15</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.195</v>
+        <v>0.339</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.116</v>
+        <v>0.353</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -695,15 +695,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.423</v>
+        <v>0.343</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.338</v>
+        <v>0.015</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.054</v>
+        <v>-0.074</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.343</v>
+        <v>0.331</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.116</v>
+        <v>0.149</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.189</v>
+        <v>-0.258</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,15 +743,15 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>-0.482</v>
+        <v>0.153</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-0.231</v>
+        <v>0.029</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>-0.178</v>
+        <v>-0.242</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.442</v>
+        <v>-0.598</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.579</v>
+        <v>-0.461</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.189</v>
+        <v>-0.06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.608</v>
+        <v>-0.737</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.6820000000000001</v>
+        <v>-0.581</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>-0.254</v>
+        <v>-0.064</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>-0.497</v>
+        <v>-0.669</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-0.632</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>-0.097</v>
+        <v>-0.023</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.764</v>
+        <v>0.331</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -861,15 +861,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.382</v>
+        <v>0.316</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.023</v>
+        <v>-0.043</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.731</v>
+        <v>0.337</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.276</v>
+        <v>0.285</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>-0.077</v>
+        <v>-0.007</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.704</v>
+        <v>0.392</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.237</v>
+        <v>0.209</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>-0.066</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.283</v>
+        <v>-0.123</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.501</v>
+        <v>-0.58</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.362</v>
+        <v>-0.487</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.222</v>
+        <v>-0.107</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -964,23 +964,23 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-0.385</v>
+        <v>-0.571</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>-0.295</v>
+        <v>-0.594</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>-0.275</v>
+        <v>-0.038</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-0.375</v>
+        <v>-0.324</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -996,11 +996,11 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>-0.282</v>
+        <v>-0.398</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.187</v>
+        <v>0.236</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.048</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.191</v>
+        <v>0.216</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.089</v>
+        <v>0.126</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1051,15 +1051,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.171</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.215</v>
+        <v>0.193</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.039</v>
+        <v>0.115</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1075,11 +1075,11 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.083</v>
+        <v>0.159</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.054</v>
+        <v>0.065</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.284</v>
+        <v>0.257</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.488</v>
+        <v>0.61</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.03</v>
+        <v>0.052</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.268</v>
+        <v>0.241</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1130,15 +1130,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.273</v>
+        <v>0.457</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>-0.052</v>
+        <v>-0.065</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.307</v>
+        <v>0.077</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.337</v>
+        <v>0.295</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.029</v>
+        <v>-0.032</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.018</v>
+        <v>-0.04</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.001</v>
+        <v>-0.013</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.062</v>
+        <v>-0.054</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.026</v>
+        <v>-0.059</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>-0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>-0.021</v>
+        <v>-0.034</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.012</v>
+        <v>-0.022</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.064</v>
+        <v>0.038</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.166</v>
+        <v>-0.054</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.047</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.318</v>
+        <v>-0.245</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.186</v>
+        <v>-0.074</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.081</v>
+        <v>-0.028</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1288,15 +1288,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>-0.28</v>
+        <v>-0.205</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>-0.181</v>
+        <v>-0.093</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-0.079</v>
+        <v>-0.027</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1312,11 +1312,11 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>-0.247</v>
+        <v>-0.202</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.046</v>
+        <v>0.056</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.073</v>
+        <v>0.034</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.039</v>
+        <v>-0.108</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.019</v>
+        <v>0.04</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.045</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.016</v>
+        <v>-0.056</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.089</v>
+        <v>0.076</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.027</v>
+        <v>-0.023</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1406,71 +1406,71 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.18</v>
+        <v>-0.103</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D13" t="n">
+        <v>-0.091</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.094</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>-0.144</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>0.062</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.187</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.098</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.158</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>-0.06900000000000001</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>0.08799999999999999</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1485,15 +1485,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.098</v>
+        <v>-0.267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.011</v>
+        <v>-0.192</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.259</v>
+        <v>-0.402</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1509,15 +1509,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-0.029</v>
+        <v>-0.277</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-0.031</v>
+        <v>-0.27</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1525,15 +1525,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>-0.161</v>
+        <v>-0.365</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>-0.047</v>
+        <v>-0.218</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.002</v>
+        <v>-0.167</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1549,11 +1549,11 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>-0.179</v>
+        <v>-0.283</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1564,39 +1564,39 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.217</v>
+        <v>0.077</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.171</v>
+        <v>0.101</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.205</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.123</v>
+        <v>0.058</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.145</v>
+        <v>0.119</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1612,15 +1612,15 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.231</v>
+        <v>0.119</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.15</v>
+        <v>0.057</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1628,11 +1628,11 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.011</v>
+        <v>0.025</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1651,63 +1651,63 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>0.068</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>0.067</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08</v>
+        <v>-0.081</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1730,15 +1730,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.063</v>
+        <v>-0.157</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-0.061</v>
+        <v>-0.106</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.074</v>
+        <v>-0.091</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.035</v>
+        <v>-0.117</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1762,35 +1762,35 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>-0.08</v>
+        <v>-0.163</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.089</v>
+        <v>-0.064</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>-0.051</v>
+        <v>-0.164</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>-0.061</v>
+        <v>-0.137</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -1801,15 +1801,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.181</v>
+        <v>0.322</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.426</v>
+        <v>0.327</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.429</v>
+        <v>0.385</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1825,15 +1825,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.242</v>
+        <v>0.442</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.499</v>
+        <v>0.444</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.549</v>
+        <v>0.504</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.293</v>
+        <v>0.471</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.514</v>
+        <v>0.392</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.446</v>
+        <v>0.37</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.042</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1888,15 +1888,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-0.066</v>
+        <v>-0.037</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1904,23 +1904,23 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-0.075</v>
+        <v>0.037</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.09</v>
+        <v>0.001</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>-0.058</v>
+        <v>-0.022</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>-0.062</v>
+        <v>0.053</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1936,15 +1936,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>-0.08500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>-0.049</v>
+        <v>-0.018</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -1955,51 +1955,51 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004</v>
+        <v>0.47</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.118</v>
+        <v>0.323</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.057</v>
+        <v>0.538</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.304</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.22</v>
+        <v>0.354</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2007,23 +2007,23 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.047</v>
+        <v>0.538</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.039</v>
+        <v>0.309</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.301</v>
+        <v>0.448</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2034,19 +2034,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>지가</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.073</v>
+        <v>-0.224</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.04</v>
+        <v>-0.198</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2054,23 +2054,23 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-0.249</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.008</v>
+        <v>-0.282</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.022</v>
+        <v>-0.189</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0.039</v>
+        <v>-0.092</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2086,38 +2086,38 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>-0.001</v>
+        <v>-0.319</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.02</v>
+        <v>-0.232</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>-0.153</v>
+        <v>-0.171</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.164</v>
+        <v>0.027</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2125,31 +2125,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.232</v>
+        <v>0.131</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.269</v>
+        <v>0.024</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.236</v>
+        <v>0.035</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.196</v>
+        <v>0.104</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0.282</v>
+        <v>0.24</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2165,15 +2165,15 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.208</v>
+        <v>0.007</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.203</v>
+        <v>0.08</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2192,11 +2192,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>종사자수</t>
+          <t>지가</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.019</v>
+        <v>-0.012</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.209</v>
+        <v>0.025</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2212,15 +2212,15 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-0.09</v>
+        <v>-0.254</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-0.044</v>
+        <v>0.012</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-0.194</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>-0.1</v>
+        <v>-0.002</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>-0.038</v>
+        <v>0.007</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>-0.242</v>
+        <v>0.003</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>-0.218</v>
+        <v>-0.157</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.126</v>
+        <v>0.158</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.412</v>
+        <v>0.437</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2291,15 +2291,15 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-0.09</v>
+        <v>-0.079</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.121</v>
+        <v>0.156</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.41</v>
+        <v>0.439</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2315,15 +2315,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>-0.096</v>
+        <v>-0.078</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.411</v>
+        <v>0.441</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>-0.074</v>
+        <v>-0.058</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2362,15 +2362,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-0.036</v>
+        <v>-0.042</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.035</v>
+        <v>0.048</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2386,15 +2386,15 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.089</v>
+        <v>0.082</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>-0.037</v>
+        <v>-0.048</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2410,96 +2410,17 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.083</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>-0.042</v>
+        <v>-0.05</v>
       </c>
       <c r="S25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>월평균소득</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.479</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.152</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>-0.463</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>-0.155</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>-0.502</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>-0.175</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="S26" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
